--- a/outputs-r202/test-o__Desulfovibrionales.xlsx
+++ b/outputs-r202/test-o__Desulfovibrionales.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
   <si>
     <t>Row</t>
   </si>
@@ -79,7 +79,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -89,14 +89,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -122,192 +126,192 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.12564872022335966</v>
+        <v>0.12564383054275374</v>
       </c>
       <c r="C2">
-        <v>4.4742927005213293e-10</v>
+        <v>6.4063238170124876e-10</v>
       </c>
       <c r="D2">
-        <v>4.4742927005213314e-10</v>
+        <v>6.4063238170124876e-10</v>
       </c>
       <c r="E2">
-        <v>4.4742927005213169e-10</v>
+        <v>6.4063238170124814e-10</v>
       </c>
       <c r="F2">
-        <v>4.4742927005213169e-10</v>
+        <v>6.4063238170124814e-10</v>
       </c>
       <c r="G2">
-        <v>4.474292700521319e-10</v>
+        <v>6.4063238170124856e-10</v>
       </c>
       <c r="H2">
-        <v>0.87435127709206484</v>
+        <v>0.87435616561345197</v>
       </c>
       <c r="I2">
-        <v>4.4742927005213211e-10</v>
+        <v>6.4063238170124876e-10</v>
       </c>
       <c r="J2">
         <v>7</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>3.2519840729329082e-05</v>
+        <v>1.7805720177688318e-05</v>
       </c>
       <c r="C3">
-        <v>2.2204370240373761e-14</v>
+        <v>2.2204411074267705e-14</v>
       </c>
       <c r="D3">
-        <v>2.2204370240373761e-14</v>
+        <v>2.2204411074267705e-14</v>
       </c>
       <c r="E3">
-        <v>2.2204370240373761e-14</v>
+        <v>2.2204411074267705e-14</v>
       </c>
       <c r="F3">
-        <v>2.2204370240373761e-14</v>
+        <v>2.2204411074267705e-14</v>
       </c>
       <c r="G3">
-        <v>2.2204370240373761e-14</v>
+        <v>2.2204411074267705e-14</v>
       </c>
       <c r="H3">
-        <v>0.99996748015913739</v>
+        <v>0.99998219427968915</v>
       </c>
       <c r="I3">
-        <v>2.2204370240373761e-14</v>
+        <v>2.2204411074267705e-14</v>
       </c>
       <c r="J3">
         <v>7</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>3.2817872221178385e-07</v>
+        <v>2.3919428344470584e-07</v>
       </c>
       <c r="C4">
-        <v>2.2204459581624335e-14</v>
+        <v>2.220445982860536e-14</v>
       </c>
       <c r="D4">
-        <v>2.2204459581624335e-14</v>
+        <v>2.220445982860536e-14</v>
       </c>
       <c r="E4">
-        <v>2.2204459581624335e-14</v>
+        <v>2.220445982860536e-14</v>
       </c>
       <c r="F4">
-        <v>2.2204459581624335e-14</v>
+        <v>2.220445982860536e-14</v>
       </c>
       <c r="G4">
-        <v>2.2204459581624335e-14</v>
+        <v>2.220445982860536e-14</v>
       </c>
       <c r="H4">
-        <v>0.99999967182114458</v>
+        <v>0.99999976080558339</v>
       </c>
       <c r="I4">
-        <v>2.2204459581624335e-14</v>
+        <v>2.220445982860536e-14</v>
       </c>
       <c r="J4">
         <v>7</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2.7552369390133467e-07</v>
+        <v>1.8428814031874349e-07</v>
       </c>
       <c r="C5">
-        <v>2.2204459727771139e-14</v>
+        <v>2.2204459981000327e-14</v>
       </c>
       <c r="D5">
-        <v>2.2204459727771139e-14</v>
+        <v>2.2204459981000327e-14</v>
       </c>
       <c r="E5">
-        <v>2.2204459727771139e-14</v>
+        <v>2.2204459981000327e-14</v>
       </c>
       <c r="F5">
-        <v>2.2204459727771139e-14</v>
+        <v>2.2204459981000327e-14</v>
       </c>
       <c r="G5">
-        <v>2.2204459727771139e-14</v>
+        <v>2.2204459981000327e-14</v>
       </c>
       <c r="H5">
-        <v>0.99999972447617291</v>
+        <v>0.99999981571172636</v>
       </c>
       <c r="I5">
-        <v>2.2204459727771139e-14</v>
+        <v>2.2204459981000327e-14</v>
       </c>
       <c r="J5">
         <v>7</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>4.6801938326538466e-05</v>
+        <v>0.12563872071672513</v>
       </c>
       <c r="C6">
-        <v>2.2204330608760924e-14</v>
+        <v>6.9014225257133121e-10</v>
       </c>
       <c r="D6">
-        <v>2.2204330608760924e-14</v>
+        <v>6.9014225257133007e-10</v>
       </c>
       <c r="E6">
-        <v>2.2204330608760924e-14</v>
+        <v>6.9014225257133214e-10</v>
       </c>
       <c r="F6">
-        <v>2.2204330608760924e-14</v>
+        <v>6.9014225257133286e-10</v>
       </c>
       <c r="G6">
-        <v>2.2204330608760924e-14</v>
+        <v>6.901422525713279e-10</v>
       </c>
       <c r="H6">
-        <v>0.99995319806154026</v>
+        <v>0.87436127514242146</v>
       </c>
       <c r="I6">
-        <v>2.2204330608760924e-14</v>
+        <v>6.9014225257132873e-10</v>
       </c>
       <c r="J6">
         <v>7</v>
